--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.982000000000001</v>
+        <v>-8.01</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.944000000000001</v>
+        <v>5.481</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.276</v>
+        <v>-22.366</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.716</v>
+        <v>-21.729</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.438</v>
+        <v>16.414</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.544</v>
+        <v>-21.511</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.77</v>
+        <v>17.858</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.502</v>
+        <v>16.636</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.754</v>
+        <v>16.805</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.324</v>
+        <v>5.313000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.992</v>
+        <v>-21.808</v>
       </c>
       <c r="B18" t="n">
-        <v>4.76</v>
+        <v>5.92</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.715999999999999</v>
+        <v>-8.753000000000002</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.656000000000001</v>
+        <v>-7.912000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.776</v>
+        <v>7.489</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.018000000000001</v>
+        <v>-7.816</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.502</v>
+        <v>5.377</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.63</v>
+        <v>16.924</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>7.174000000000001</v>
+        <v>6.000999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.046</v>
+        <v>5.231</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.328</v>
+        <v>-7.606999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.604</v>
+        <v>16.717</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.514</v>
+        <v>16.194</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.182</v>
+        <v>-20.272</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.976000000000002</v>
+        <v>-8.286000000000001</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.16</v>
+        <v>8.962</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.42</v>
+        <v>-8.257999999999999</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>16.798</v>
+        <v>16.791</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.134</v>
+        <v>-7.936999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.859999999999999</v>
+        <v>-7.847</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>16.708</v>
+        <v>16.954</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>16.476</v>
+        <v>16.359</v>
       </c>
     </row>
     <row r="50">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.118</v>
+        <v>5.012</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.606</v>
+        <v>16.417</v>
       </c>
     </row>
     <row r="51">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.842</v>
+        <v>-21.843</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.172</v>
+        <v>16.183</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.436</v>
+        <v>-8.371</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.016</v>
+        <v>-7.851999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.442</v>
+        <v>-21.454</v>
       </c>
       <c r="B68" t="n">
-        <v>4.522</v>
+        <v>5.298000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>16.608</v>
+        <v>17.267</v>
       </c>
     </row>
     <row r="70">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.673999999999999</v>
+        <v>-8.027000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>7.034000000000001</v>
+        <v>6.33</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.352</v>
+        <v>-20.637</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.15</v>
+        <v>-20.126</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.142</v>
+        <v>-21.258</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.182</v>
+        <v>16.673</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9</v>
+        <v>-22.077</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>3.946</v>
+        <v>4.636</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.08</v>
+        <v>4.858000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.516</v>
+        <v>-8.211</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.65</v>
+        <v>17.637</v>
       </c>
     </row>
     <row r="93">
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.596000000000001</v>
+        <v>-7.486999999999999</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.173999999999999</v>
+        <v>-7.561</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>4.924</v>
+        <v>6.281000000000001</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.254</v>
+        <v>5.762</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,13 +2148,13 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>7.642000000000001</v>
+        <v>7.875</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.084</v>
+        <v>-8.187000000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.278</v>
+        <v>7.375999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
